--- a/脚本记录.xlsx
+++ b/脚本记录.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ken\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Aurora209\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670320FE-6F48-44AD-9EB2-8A8ED9AAA4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529DB843-2DBC-48FF-B8F8-B445DCA0D191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="302">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1070,6 +1070,58 @@
   </si>
   <si>
     <t>jd_ddwj.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jddj_bean.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东到家鲜豆任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东到家果园任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jddj_fruit.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东到家果园水车收水滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jddj_fruit_collectWater.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东到家鲜豆庄园收水滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jddj_getPoints.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东到家鲜豆庄园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jddj_plantBeans.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jddjCookie.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东到家Cookie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passerby-b/JDDJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1127,7 +1179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1146,6 +1198,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2930,10 +2983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D9709-92E4-49DB-B7AF-56F4AAEE7AAE}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3489,6 +3542,90 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>289</v>
+      </c>
+      <c r="B43" t="s">
+        <v>290</v>
+      </c>
+      <c r="C43" s="8">
+        <v>44479</v>
+      </c>
+      <c r="D43" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>292</v>
+      </c>
+      <c r="B44" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="8">
+        <v>44479</v>
+      </c>
+      <c r="D44" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>294</v>
+      </c>
+      <c r="B45" t="s">
+        <v>293</v>
+      </c>
+      <c r="C45" s="8">
+        <v>44479</v>
+      </c>
+      <c r="D45" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>296</v>
+      </c>
+      <c r="B46" t="s">
+        <v>295</v>
+      </c>
+      <c r="C46" s="8">
+        <v>44479</v>
+      </c>
+      <c r="D46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>298</v>
+      </c>
+      <c r="B47" t="s">
+        <v>297</v>
+      </c>
+      <c r="C47" s="8">
+        <v>44479</v>
+      </c>
+      <c r="D47" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>299</v>
+      </c>
+      <c r="B48" t="s">
+        <v>300</v>
+      </c>
+      <c r="C48" s="8">
+        <v>44479</v>
+      </c>
+      <c r="D48" t="s">
+        <v>301</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3526,5 +3663,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/脚本记录.xlsx
+++ b/脚本记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Aurora209\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529DB843-2DBC-48FF-B8F8-B445DCA0D191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C755867E-CD2B-4102-BDF8-E2C1E92BEE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="305">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1038,10 +1038,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海尔京东超级品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Star261/jd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1122,6 +1118,22 @@
   </si>
   <si>
     <t>Passerby-b/JDDJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jd_DailyBonus_Mod.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬赚金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jd_zjb.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜分海尔万元小家电</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1129,7 +1141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1146,13 +1158,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -1179,7 +1184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1191,19 +1196,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1600,11 +1638,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A104" sqref="A104:XFD104"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1879,7 +1917,7 @@
     </row>
     <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>150</v>
@@ -2023,10 +2061,10 @@
     </row>
     <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2035,10 +2073,10 @@
     </row>
     <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2047,10 +2085,10 @@
     </row>
     <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2059,10 +2097,10 @@
     </row>
     <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2071,10 +2109,10 @@
     </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2083,10 +2121,10 @@
     </row>
     <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2095,10 +2133,10 @@
     </row>
     <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2107,10 +2145,10 @@
     </row>
     <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2119,10 +2157,10 @@
     </row>
     <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2131,10 +2169,10 @@
     </row>
     <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2143,10 +2181,10 @@
     </row>
     <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2155,10 +2193,10 @@
     </row>
     <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2167,10 +2205,10 @@
     </row>
     <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2179,10 +2217,10 @@
     </row>
     <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2191,10 +2229,10 @@
     </row>
     <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2203,10 +2241,10 @@
     </row>
     <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2215,10 +2253,10 @@
     </row>
     <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2227,10 +2265,10 @@
     </row>
     <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2239,10 +2277,10 @@
     </row>
     <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2251,10 +2289,10 @@
     </row>
     <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2263,10 +2301,10 @@
     </row>
     <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2275,10 +2313,10 @@
     </row>
     <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2287,10 +2325,10 @@
     </row>
     <row r="56" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2299,10 +2337,10 @@
     </row>
     <row r="57" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2311,10 +2349,10 @@
     </row>
     <row r="58" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2323,10 +2361,10 @@
     </row>
     <row r="59" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2335,10 +2373,10 @@
     </row>
     <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2347,10 +2385,10 @@
     </row>
     <row r="61" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2359,10 +2397,10 @@
     </row>
     <row r="62" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2371,10 +2409,10 @@
     </row>
     <row r="63" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2383,10 +2421,10 @@
     </row>
     <row r="64" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2395,10 +2433,10 @@
     </row>
     <row r="65" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2407,10 +2445,10 @@
     </row>
     <row r="66" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2419,10 +2457,10 @@
     </row>
     <row r="67" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2431,10 +2469,10 @@
     </row>
     <row r="68" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2443,10 +2481,10 @@
     </row>
     <row r="69" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2455,10 +2493,10 @@
     </row>
     <row r="70" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2467,10 +2505,10 @@
     </row>
     <row r="71" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2479,10 +2517,10 @@
     </row>
     <row r="72" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2491,10 +2529,10 @@
     </row>
     <row r="73" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2503,10 +2541,10 @@
     </row>
     <row r="74" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2515,10 +2553,10 @@
     </row>
     <row r="75" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2527,10 +2565,10 @@
     </row>
     <row r="76" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2539,10 +2577,10 @@
     </row>
     <row r="77" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2551,10 +2589,10 @@
     </row>
     <row r="78" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2563,10 +2601,10 @@
     </row>
     <row r="79" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2575,10 +2613,10 @@
     </row>
     <row r="80" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -2587,10 +2625,10 @@
     </row>
     <row r="81" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -2599,10 +2637,10 @@
     </row>
     <row r="82" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -2611,10 +2649,10 @@
     </row>
     <row r="83" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -2623,10 +2661,10 @@
     </row>
     <row r="84" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2635,10 +2673,10 @@
     </row>
     <row r="85" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2647,10 +2685,10 @@
     </row>
     <row r="86" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -2659,10 +2697,10 @@
     </row>
     <row r="87" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -2671,10 +2709,10 @@
     </row>
     <row r="88" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2683,10 +2721,10 @@
     </row>
     <row r="89" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2695,10 +2733,10 @@
     </row>
     <row r="90" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2707,10 +2745,10 @@
     </row>
     <row r="91" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -2719,10 +2757,10 @@
     </row>
     <row r="92" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2731,55 +2769,52 @@
     </row>
     <row r="93" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
+    <row r="112" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="2"/>
@@ -2790,7 +2825,7 @@
     </row>
     <row r="116" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="2"/>
@@ -2801,7 +2836,7 @@
     </row>
     <row r="117" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="2"/>
@@ -2812,7 +2847,7 @@
     </row>
     <row r="118" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="2"/>
@@ -2823,7 +2858,7 @@
     </row>
     <row r="119" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="2"/>
@@ -2834,7 +2869,7 @@
     </row>
     <row r="120" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="2"/>
@@ -2845,7 +2880,7 @@
     </row>
     <row r="121" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="2"/>
@@ -2856,7 +2891,7 @@
     </row>
     <row r="122" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="2"/>
@@ -2867,7 +2902,7 @@
     </row>
     <row r="123" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="2"/>
@@ -2878,7 +2913,7 @@
     </row>
     <row r="124" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="2"/>
@@ -2889,7 +2924,7 @@
     </row>
     <row r="125" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="2"/>
@@ -2900,7 +2935,7 @@
     </row>
     <row r="126" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="2"/>
@@ -2911,7 +2946,7 @@
     </row>
     <row r="127" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="2"/>
@@ -2921,9 +2956,7 @@
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -2932,9 +2965,7 @@
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -2942,39 +2973,10 @@
       <c r="F129" s="2"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B130" s="1"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="1"/>
-    </row>
-    <row r="131" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B110:B1048576 B1:B96">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+  <conditionalFormatting sqref="B107:B1048576 B1:B93">
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2983,23 +2985,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D9709-92E4-49DB-B7AF-56F4AAEE7AAE}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
@@ -3019,7 +3022,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>235</v>
       </c>
@@ -3035,7 +3038,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>237</v>
       </c>
@@ -3051,7 +3054,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>239</v>
       </c>
@@ -3067,7 +3070,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>241</v>
       </c>
@@ -3085,7 +3088,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>245</v>
       </c>
@@ -3105,7 +3108,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>247</v>
       </c>
@@ -3123,7 +3126,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>249</v>
       </c>
@@ -3143,7 +3146,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>251</v>
       </c>
@@ -3163,7 +3166,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>253</v>
       </c>
@@ -3183,7 +3186,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>260</v>
       </c>
@@ -3203,7 +3206,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>264</v>
       </c>
@@ -3219,7 +3222,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>266</v>
       </c>
@@ -3235,7 +3238,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>268</v>
       </c>
@@ -3251,7 +3254,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>81</v>
       </c>
@@ -3267,7 +3270,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>78</v>
       </c>
@@ -3283,7 +3286,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -3299,7 +3302,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -3315,7 +3318,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -3329,7 +3332,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -3343,7 +3346,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -3357,7 +3360,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>86</v>
       </c>
@@ -3385,7 +3388,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>87</v>
       </c>
@@ -3399,7 +3402,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
@@ -3413,253 +3416,377 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="5">
+        <v>44479</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C29" s="3">
+        <v>44478</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="C29" s="5">
-        <v>44478</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C30" s="5">
+        <v>282</v>
+      </c>
+      <c r="C30" s="3">
         <v>44478</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>281</v>
+      <c r="D30" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="3">
+        <v>44478</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C31" s="5">
-        <v>44478</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>44478</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>281</v>
+      <c r="D32" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>44478</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>44478</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C38" s="5">
-        <v>44478</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C40" s="3">
-        <v>44478</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>278</v>
-      </c>
+    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="3">
+        <v>44479</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="3"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="3"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="3"/>
+      <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C42" s="3">
+        <v>44478</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C43" s="3">
+        <v>44479</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="3">
+        <v>44479</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="3">
+        <v>44479</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="3">
+        <v>44479</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" s="3">
+        <v>44478</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C51" s="5">
+        <v>44479</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C52" s="5">
         <v>44479</v>
       </c>
-      <c r="D43" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="D52" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B44" t="s">
-        <v>291</v>
-      </c>
-      <c r="C44" s="8">
+      <c r="C53" s="5">
         <v>44479</v>
       </c>
-      <c r="D44" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="D53" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B45" t="s">
-        <v>293</v>
-      </c>
-      <c r="C45" s="8">
+      <c r="C54" s="5">
         <v>44479</v>
       </c>
-      <c r="D45" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="D54" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B46" t="s">
-        <v>295</v>
-      </c>
-      <c r="C46" s="8">
+      <c r="C55" s="5">
         <v>44479</v>
       </c>
-      <c r="D46" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="D55" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B47" t="s">
-        <v>297</v>
-      </c>
-      <c r="C47" s="8">
+      <c r="B56" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C56" s="5">
         <v>44479</v>
       </c>
-      <c r="D47" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>299</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="D56" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="C48" s="8">
-        <v>44479</v>
-      </c>
-      <c r="D48" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B14">
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B14">
+  <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
+  <conditionalFormatting sqref="B20:B27">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="B32 B29:B30">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B35:B36">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
+  <conditionalFormatting sqref="B42:B43">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B26">
+  <conditionalFormatting sqref="B48">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32 B29:B30">
+  <conditionalFormatting sqref="B44">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
+  <conditionalFormatting sqref="B45">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
+  <conditionalFormatting sqref="B46">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
+  <conditionalFormatting sqref="B37:B40">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/脚本记录.xlsx
+++ b/脚本记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Aurora209\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C755867E-CD2B-4102-BDF8-E2C1E92BEE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E23B5D-3796-47F4-AFBD-F44D452AE4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="305">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -858,10 +858,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gua_ddgame.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>东东游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1133,8 +1129,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>瓜分海尔万元小家电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>海尔京东超级品牌日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jd_ddworld.js</t>
   </si>
 </sst>
 </file>
@@ -1669,10 +1668,10 @@
         <v>234</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1917,7 +1916,7 @@
     </row>
     <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>150</v>
@@ -2985,10 +2984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D9709-92E4-49DB-B7AF-56F4AAEE7AAE}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3002,7 +3001,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
@@ -3016,31 +3015,15 @@
         <v>234</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="C2" s="3">
-        <v>44478</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>151</v>
@@ -3049,212 +3032,212 @@
         <v>44478</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4" s="3">
         <v>44478</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C5" s="3">
         <v>44478</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C6" s="3">
         <v>44478</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" s="3">
         <v>44478</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C8" s="3">
         <v>44478</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" s="3">
         <v>44478</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C10" s="3">
         <v>44478</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="C11" s="3">
         <v>44478</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="C12" s="3">
         <v>44478</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C13" s="3">
         <v>44478</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C14" s="3">
         <v>44478</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>81</v>
       </c>
@@ -3265,12 +3248,12 @@
         <v>44478</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>78</v>
       </c>
@@ -3281,12 +3264,12 @@
         <v>44478</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -3297,12 +3280,12 @@
         <v>44478</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -3313,12 +3296,12 @@
         <v>44478</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -3329,10 +3312,10 @@
         <v>44478</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -3343,10 +3326,10 @@
         <v>44478</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -3357,10 +3340,10 @@
         <v>44478</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -3371,10 +3354,10 @@
         <v>44478</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>86</v>
       </c>
@@ -3385,10 +3368,10 @@
         <v>44478</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>87</v>
       </c>
@@ -3399,10 +3382,10 @@
         <v>44478</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
@@ -3413,12 +3396,12 @@
         <v>44478</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>161</v>
@@ -3427,60 +3410,60 @@
         <v>44479</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C29" s="3">
-        <v>44478</v>
+        <v>44479</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C30" s="3">
         <v>44478</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C31" s="3">
         <v>44478</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -3491,176 +3474,190 @@
         <v>44478</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" s="3">
+        <v>44479</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C35" s="3">
         <v>44478</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C36" s="3">
         <v>44478</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C37" s="3">
-        <v>44479</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>275</v>
-      </c>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C37" s="3"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" s="3"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" s="3"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="3"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C41" s="3">
+        <v>44478</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C42" s="3">
+        <v>44479</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C42" s="3">
-        <v>44478</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>303</v>
+        <v>84</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c r="C43" s="3">
         <v>44479</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C44" s="3">
         <v>44479</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="C45" s="3">
         <v>44479</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" s="3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47" s="3">
+        <v>44478</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" s="5">
         <v>44479</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C48" s="3">
-        <v>44478</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>289</v>
@@ -3669,77 +3666,63 @@
         <v>44479</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="C52" s="5">
         <v>44479</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C53" s="5">
         <v>44479</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="C54" s="5">
         <v>44479</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C55" s="5">
         <v>44479</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B56" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C56" s="5">
-        <v>44479</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3747,7 +3730,7 @@
   <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B14">
+  <conditionalFormatting sqref="B3:B14 B33">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
@@ -3771,23 +3754,23 @@
   <conditionalFormatting sqref="B35:B36">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B43">
+  <conditionalFormatting sqref="B41:B42">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
+  <conditionalFormatting sqref="B47">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B43">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B44">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
+  <conditionalFormatting sqref="B45">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B40">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B37:B39">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/脚本记录.xlsx
+++ b/脚本记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Aurora209\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E23B5D-3796-47F4-AFBD-F44D452AE4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09751C45-24BD-4DA9-8FDB-EFD84DE2378A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="306">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1134,6 +1134,10 @@
   </si>
   <si>
     <t>jd_ddworld.js</t>
+  </si>
+  <si>
+    <t>依赖文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1200,7 +1204,67 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1637,11 +1701,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66:XFD66"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1722,18 +1786,6 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
@@ -1794,18 +1846,6 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
     <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
@@ -2094,18 +2134,6 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>38</v>
@@ -2622,7 +2650,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>92</v>
       </c>
@@ -2634,7 +2662,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>93</v>
       </c>
@@ -2646,7 +2674,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>94</v>
       </c>
@@ -2658,7 +2686,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>95</v>
       </c>
@@ -2670,7 +2698,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>96</v>
       </c>
@@ -2682,7 +2710,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>97</v>
       </c>
@@ -2694,7 +2722,7 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>98</v>
       </c>
@@ -2706,7 +2734,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>99</v>
       </c>
@@ -2718,7 +2746,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>100</v>
       </c>
@@ -2730,7 +2758,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>101</v>
       </c>
@@ -2742,7 +2770,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>102</v>
       </c>
@@ -2754,7 +2782,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>105</v>
       </c>
@@ -2766,7 +2794,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>106</v>
       </c>
@@ -2778,204 +2806,171 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="112" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+    <row r="95" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="1"/>
-    </row>
-    <row r="113" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="B95" s="1"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="1"/>
-    </row>
-    <row r="114" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="B96" s="1"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="1"/>
-    </row>
-    <row r="115" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+      <c r="B97" s="1"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="1"/>
-    </row>
-    <row r="116" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B116" s="1"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="1"/>
-    </row>
-    <row r="117" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+      <c r="B98" s="1"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="1"/>
-    </row>
-    <row r="118" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="B99" s="1"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="1"/>
-    </row>
-    <row r="119" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="B100" s="1"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="1"/>
-    </row>
-    <row r="120" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+      <c r="B101" s="1"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="1"/>
-    </row>
-    <row r="121" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="1"/>
-    </row>
-    <row r="122" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="B102" s="1"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="104" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="1"/>
-    </row>
-    <row r="123" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="B104" s="1"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B123" s="1"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="1"/>
-    </row>
-    <row r="124" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+      <c r="B105" s="1"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B124" s="1"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="1"/>
-    </row>
-    <row r="125" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="B106" s="1"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B125" s="1"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="1"/>
-    </row>
-    <row r="126" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B126" s="1"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="1"/>
-    </row>
-    <row r="127" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+      <c r="B107" s="1"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="109" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="1"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="1"/>
-    </row>
-    <row r="128" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B107:B1048576 B1:B93">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+  <conditionalFormatting sqref="B1:B5 B104:B107 B13:B36 B109:B1048576 B38:B102 B7:B11">
+    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2984,10 +2979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D9709-92E4-49DB-B7AF-56F4AAEE7AAE}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3269,7 +3264,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,7 +3280,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -3301,7 +3296,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -3315,7 +3310,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -3329,7 +3324,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -3343,7 +3338,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -3357,7 +3352,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>86</v>
       </c>
@@ -3371,7 +3366,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>87</v>
       </c>
@@ -3385,7 +3380,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
@@ -3399,7 +3394,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>300</v>
       </c>
@@ -3413,31 +3408,32 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C28" s="3">
+        <v>44480</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C30" s="3">
         <v>44479</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C30" s="3">
-        <v>44478</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>279</v>
@@ -3445,12 +3441,12 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C31" s="3">
         <v>44478</v>
@@ -3458,17 +3454,15 @@
       <c r="D31" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>285</v>
-      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>284</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>186</v>
+        <v>283</v>
       </c>
       <c r="C32" s="3">
         <v>44478</v>
@@ -3476,18 +3470,20 @@
       <c r="D32" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>304</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="C33" s="3">
-        <v>44479</v>
+        <v>44478</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>279</v>
@@ -3495,28 +3491,28 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" s="3">
+        <v>44479</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C35" s="3">
-        <v>44478</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="C36" s="3">
         <v>44478</v>
@@ -3527,81 +3523,93 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C37" s="3">
+        <v>44478</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="3"/>
-      <c r="D38" s="2"/>
+    <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C38" s="3">
+        <v>44480</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C39" s="3"/>
-      <c r="D39" s="2"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="3">
+        <v>44480</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C41" s="3">
-        <v>44478</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>272</v>
-      </c>
+    <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C40" s="3">
+        <v>44480</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="3"/>
+      <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C42" s="3">
-        <v>44479</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>272</v>
-      </c>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="3"/>
+      <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C43" s="3">
-        <v>44479</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>271</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="C44" s="3">
-        <v>44479</v>
+        <v>44478</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>272</v>
@@ -3609,12 +3617,12 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>302</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>162</v>
+        <v>301</v>
       </c>
       <c r="C45" s="3">
         <v>44479</v>
@@ -3625,152 +3633,250 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="3">
+        <v>44479</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>278</v>
+        <v>199</v>
       </c>
       <c r="C47" s="3">
-        <v>44478</v>
+        <v>44479</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="3">
+        <v>44479</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="3">
+        <v>44480</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="3">
+        <v>44480</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C52" s="3">
+        <v>44478</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C50" s="5">
-        <v>44479</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C51" s="5">
-        <v>44479</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C52" s="5">
-        <v>44479</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C53" s="5">
-        <v>44479</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C54" s="5">
-        <v>44479</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="C55" s="5">
         <v>44479</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C56" s="5">
+        <v>44479</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C57" s="5">
+        <v>44479</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C58" s="5">
+        <v>44479</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" s="5">
+        <v>44479</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C60" s="5">
+        <v>44479</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>299</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B14 B33">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  <conditionalFormatting sqref="B3:B14 B34">
+    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B27">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32 B29:B30">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  <conditionalFormatting sqref="B33 B30:B31">
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  <conditionalFormatting sqref="B36:B37">
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B45">
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B42">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B39">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B49">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B39">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/脚本记录.xlsx
+++ b/脚本记录.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Aurora209\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09751C45-24BD-4DA9-8FDB-EFD84DE2378A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB12F62-7BC0-47C8-BD0A-F6815EBBC4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="过期" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="315">
   <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1137,6 +1138,41 @@
   </si>
   <si>
     <t>依赖文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jd_industrial_task.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东工业品任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jd_dddh.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东东世界兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gua_opencard43.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠聚京东 好物连连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10.11~10.26 </t>
+  </si>
+  <si>
+    <t>jd_lucky_egg.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运扭蛋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1204,7 +1240,37 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1703,9 +1769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2970,7 +3036,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B5 B104:B107 B13:B36 B109:B1048576 B38:B102 B7:B11">
-    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2981,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D9709-92E4-49DB-B7AF-56F4AAEE7AAE}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3050,10 +3116,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C5" s="3">
         <v>44478</v>
@@ -3061,17 +3127,19 @@
       <c r="D5" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C6" s="3">
         <v>44478</v>
@@ -3080,7 +3148,7 @@
         <v>268</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>255</v>
@@ -3088,10 +3156,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C7" s="3">
         <v>44478</v>
@@ -3099,17 +3167,19 @@
       <c r="D7" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="C8" s="3">
         <v>44478</v>
@@ -3117,19 +3187,15 @@
       <c r="D8" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>255</v>
-      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C9" s="3">
         <v>44478</v>
@@ -3137,19 +3203,15 @@
       <c r="D9" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>255</v>
-      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C10" s="3">
         <v>44478</v>
@@ -3157,19 +3219,15 @@
       <c r="D10" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>255</v>
-      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="C11" s="3">
         <v>44478</v>
@@ -3177,19 +3235,15 @@
       <c r="D11" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="C12" s="3">
         <v>44478</v>
@@ -3202,10 +3256,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>265</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>264</v>
+        <v>184</v>
       </c>
       <c r="C13" s="3">
         <v>44478</v>
@@ -3218,10 +3272,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>267</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>266</v>
+        <v>176</v>
       </c>
       <c r="C14" s="3">
         <v>44478</v>
@@ -3234,74 +3288,64 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>210</v>
+        <v>311</v>
       </c>
       <c r="C15" s="3">
-        <v>44478</v>
+        <v>44481</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="3">
-        <v>44478</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="3">
-        <v>44478</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="C18" s="3">
-        <v>44478</v>
+        <v>44481</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44481</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C20" s="3">
         <v>44478</v>
@@ -3312,10 +3356,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="C21" s="3">
         <v>44478</v>
@@ -3326,10 +3370,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="C22" s="3">
         <v>44478</v>
@@ -3340,10 +3384,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="C23" s="3">
         <v>44478</v>
@@ -3354,10 +3398,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C24" s="3">
         <v>44478</v>
@@ -3368,85 +3412,91 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" s="3">
-        <v>44478</v>
+        <v>161</v>
+      </c>
+      <c r="C25" s="5">
+        <v>44481</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="C26" s="3">
-        <v>44478</v>
+        <v>44481</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C28" s="3">
         <v>44479</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C28" s="3">
-        <v>44480</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="3">
+        <v>44478</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C30" s="3">
-        <v>44479</v>
+        <v>44478</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>282</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>281</v>
+        <v>186</v>
       </c>
       <c r="C31" s="3">
         <v>44478</v>
@@ -3459,31 +3509,29 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="C32" s="3">
-        <v>44478</v>
+        <v>44479</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>285</v>
-      </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>313</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="C33" s="3">
-        <v>44478</v>
+        <v>44481</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>279</v>
@@ -3492,18 +3540,8 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C34" s="3">
-        <v>44479</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
@@ -3590,14 +3628,34 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C41" s="3"/>
-      <c r="D41" s="2"/>
+      <c r="A41" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C41" s="3">
+        <v>44481</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C42" s="3"/>
-      <c r="D42" s="2"/>
+      <c r="A42" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42" s="3">
+        <v>44481</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
@@ -3816,69 +3874,198 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B14 B34">
-    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
+  <conditionalFormatting sqref="B32:B34 B3:B10">
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
+  <conditionalFormatting sqref="B14:B16">
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B27">
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+  <conditionalFormatting sqref="B18:B25">
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33 B30:B31">
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+  <conditionalFormatting sqref="B31 B28:B29">
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B42">
-    <cfRule type="duplicateValues" dxfId="6" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1640B0C8-9D4D-47FF-91EB-1CE73ABC427D}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44478</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44478</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44478</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44478</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>